--- a/Weapolution2018.1/Assets/Resources/TextCsv/ToEditTutorialDialog(new).xlsx
+++ b/Weapolution2018.1/Assets/Resources/TextCsv/ToEditTutorialDialog(new).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>符號</t>
   </si>
@@ -68,23 +68,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因此，
-想要請你們幫我尋回一樣究極武器*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不過它的零件散落在各個時代，
-且被當代的掌權者所持有*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>導致所有時代都無法進步，
 停滯不前……*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望你們能打倒他們並尋回零件，
-恢復應有的秩序*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,6 +129,30 @@
   <si>
     <t>相信這是命運的安排，
 使你們能選中我*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因此，
+想要請你們幫我導正時空*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因為一些有心人士的介入，
+我所掌管的時間線被擾亂*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每個時代產失了力量的特異點，
+他們利用自身過強的力量發起暴行*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望你們能打倒他們，
+恢復應有的秩序*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,9 +505,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -512,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -536,15 +545,15 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -552,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33" x14ac:dyDescent="0.25">
@@ -560,87 +569,95 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
